--- a/fileManagement/프로그래머스WBS.xlsx
+++ b/fileManagement/프로그래머스WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\git\JavaSkillStudy\fileManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA7464-9875-4A25-B5CC-AD2A63F4C742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA3ACA-3CCC-4E0D-B5EF-0629E1F730C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{769208BB-7E6C-4EE5-94ED-237D10C16372}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>해시</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48~56까지의 코드는 검색내용 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +891,7 @@
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1244,8 +1248,12 @@
       <c r="H17" s="14">
         <v>44470</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="18"/>
